--- a/Factures_Excel/1797 - Silencieux de l'est Inc..xlsx
+++ b/Factures_Excel/1797 - Silencieux de l'est Inc..xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F7A81A6-5E79-47E7-A1BD-233794626934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D92643-C5BF-454A-9DFA-F038D4699FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{0EFC4ADB-C47A-4481-B4A0-38F806FA49E8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="3" xr2:uid="{0EFC4ADB-C47A-4481-B4A0-38F806FA49E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="2024-10-17 - 24-24571" sheetId="2" r:id="rId2"/>
+    <sheet name="2024-11-16 - 24-24642" sheetId="3" r:id="rId3"/>
+    <sheet name="2025-03-02 - 25-24811" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2024-10-17 - 24-24571'!$A$1:$F$89</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'2024-11-16 - 24-24642'!$A$1:$F$89</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'2025-03-02 - 25-24811'!$A$1:$F$88</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="44">
   <si>
     <t>Le 17 OCTOBRE 2024</t>
   </si>
@@ -133,20 +137,60 @@
   </si>
   <si>
     <t>MERCI DE VOTRE CONFIANCE POUR VISER JUSTE ET BIEN</t>
+  </si>
+  <si>
+    <t>Le 16 NOVEMBRE 2024</t>
+  </si>
+  <si>
+    <t>24-24642</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Recueullir les différentes informations pertinentes à l'élaboration de la planification fiscale;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Prise de connaissance et analyse des documents soumis;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Analyse des livres des minutes pour déterminer les caractéristiques fiscales des actions et</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - déterminer ce qui s'est passé antérieurement;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Préparation de tableaux de capital actions;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Préparation d'organigrammes corporatifs ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Préparation d'un sommaire de la situation actuelle et des incohérence à soumettre au comptable;</t>
+  </si>
+  <si>
+    <t>Le 2 MARS 2025</t>
+  </si>
+  <si>
+    <t>25-24811</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Analyse de tous les documents soumis pour déterminer les planifications mises en place dans le passé ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Analyse des planifications possibles compte tenu de la structure actuelle ;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
-    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;$&quot;"/>
-    <numFmt numFmtId="165" formatCode="##0.00"/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0.00_)\ _$_ ;_ * \(#,##0.00\)\ _$_ ;_ * &quot;-&quot;??_)\ _$_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="0.000%"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00\ [$$-C0C]_);\(#,##0.00\ [$$-C0C]\)"/>
+  <numFmts count="8">
+    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;_);\(#,##0.00\ &quot;$&quot;\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;$&quot;"/>
+    <numFmt numFmtId="167" formatCode="##0.00"/>
+    <numFmt numFmtId="168" formatCode="_ * #,##0.00_)\ _$_ ;_ * \(#,##0.00\)\ _$_ ;_ * &quot;-&quot;??_)\ _$_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="0.000%"/>
+    <numFmt numFmtId="170" formatCode="#,##0.00\ [$$-C0C]_);\(#,##0.00\ [$$-C0C]\)"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -342,18 +386,18 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -368,7 +412,7 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -378,7 +422,7 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -390,11 +434,8 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -412,7 +453,7 @@
     <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -421,7 +462,7 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -436,66 +477,98 @@
     <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="7" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="7" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -503,34 +576,17 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -601,6 +657,127 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>16962</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1906</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="GCF_Entête" descr="Une image contenant texte, capture d’écran, Police, conception&#10;&#10;Description générée automatiquement">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83F13836-1281-4965-AFEA-AD68629576DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1"/>
+          <a:ext cx="12189912" cy="3240405"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3073" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B57F4D5D-74A1-373A-8F58-477132F3D94E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -942,6 +1119,1684 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
+      <c r="B32" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="B34" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
+      <c r="B35" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="27"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
+      <c r="B36" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="19"/>
+      <c r="B37" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="25"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="25"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="19"/>
+      <c r="B39" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="25"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="19"/>
+      <c r="B40" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="27"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="19"/>
+      <c r="B41" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="25"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="19"/>
+      <c r="B42" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="25"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="19"/>
+      <c r="B43" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="25"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="19"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="19"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="19"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="19"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="19"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="19"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="19"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="19"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="19"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="19"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="19"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="19"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="19"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="19"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="19"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="19"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="19"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="19"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="19"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="19"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="19"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="19"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="32">
+        <v>13.5</v>
+      </c>
+      <c r="D66" s="33">
+        <v>350</v>
+      </c>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="19"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="19"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="19"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="5"/>
+      <c r="B69" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="41"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="42">
+        <v>4725</v>
+      </c>
+      <c r="F69" s="42"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="B70" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" s="44"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="45">
+        <v>0</v>
+      </c>
+      <c r="F70" s="45"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="B71" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71" s="44"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="45">
+        <v>0</v>
+      </c>
+      <c r="F71" s="45"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+      <c r="B72" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C72" s="44"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="45">
+        <v>0</v>
+      </c>
+      <c r="F72" s="45"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="5"/>
+      <c r="B73" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73" s="41"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="47">
+        <v>4725</v>
+      </c>
+      <c r="F73" s="47"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="B74" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" s="48">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="44"/>
+      <c r="E74" s="49">
+        <v>236.25</v>
+      </c>
+      <c r="F74" s="49"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="B75" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" s="51">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="44"/>
+      <c r="E75" s="52">
+        <v>471.32</v>
+      </c>
+      <c r="F75" s="49"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="5"/>
+      <c r="B77" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77" s="41"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="55">
+        <v>5432.57</v>
+      </c>
+      <c r="F77" s="56"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="B78" s="50"/>
+      <c r="C78" s="50"/>
+      <c r="D78" s="50"/>
+      <c r="E78" s="57"/>
+      <c r="F78" s="50"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="5"/>
+      <c r="B79" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79" s="50"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="8">
+        <v>0</v>
+      </c>
+      <c r="F79" s="8"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="50"/>
+      <c r="D80" s="50"/>
+      <c r="E80" s="57"/>
+      <c r="F80" s="50"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="5"/>
+      <c r="B81" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81" s="71"/>
+      <c r="D81" s="58"/>
+      <c r="E81" s="59">
+        <v>5432.57</v>
+      </c>
+      <c r="F81" s="8"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="60"/>
+      <c r="B83" s="72"/>
+      <c r="C83" s="73"/>
+      <c r="D83" s="73"/>
+      <c r="E83" s="73"/>
+      <c r="F83" s="61"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84" s="74"/>
+      <c r="C84" s="74"/>
+      <c r="D84" s="74"/>
+      <c r="E84" s="74"/>
+      <c r="F84" s="20"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" s="75"/>
+      <c r="C85" s="75"/>
+      <c r="D85" s="75"/>
+      <c r="E85" s="75"/>
+      <c r="F85" s="63"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="62"/>
+      <c r="B86" s="62"/>
+      <c r="C86" s="62"/>
+      <c r="D86" s="62"/>
+      <c r="E86" s="62"/>
+      <c r="F86" s="63"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="62"/>
+      <c r="B87" s="62"/>
+      <c r="C87" s="62"/>
+      <c r="D87" s="62"/>
+      <c r="E87" s="62"/>
+      <c r="F87" s="63"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="B88" s="68"/>
+      <c r="C88" s="68"/>
+      <c r="D88" s="68"/>
+      <c r="E88" s="68"/>
+      <c r="F88" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA112916-D57E-4308-81A0-AB135631700E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
+      <c r="B32" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="B34" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
+      <c r="B35" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="27"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
+      <c r="B36" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="19"/>
+      <c r="B37" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="25"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="25"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="19"/>
+      <c r="B39" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="25"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="19"/>
+      <c r="B40" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="27"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="19"/>
+      <c r="B41" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="25"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="19"/>
+      <c r="B42" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="25"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="19"/>
+      <c r="B43" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="25"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="19"/>
+      <c r="B44" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="25"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="19"/>
+      <c r="B45" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="25"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="19"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="19"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="19"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="19"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="19"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="19"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="19"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="19"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="19"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="19"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="19"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="19"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="19"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="19"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="19"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="19"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="19"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="19"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="65"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="19"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="19"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="32">
+        <v>10.75</v>
+      </c>
+      <c r="D66" s="33">
+        <v>350</v>
+      </c>
+      <c r="E66" s="66"/>
+      <c r="F66" s="66"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="19"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="19"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="19"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="5"/>
+      <c r="B69" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="41"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="42">
+        <v>3762.5</v>
+      </c>
+      <c r="F69" s="42"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="B70" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" s="44"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="45">
+        <v>0</v>
+      </c>
+      <c r="F70" s="45"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="B71" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71" s="44"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="45">
+        <v>0</v>
+      </c>
+      <c r="F71" s="45"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+      <c r="B72" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="C72" s="44"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="45">
+        <v>0</v>
+      </c>
+      <c r="F72" s="45"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="5"/>
+      <c r="B73" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73" s="41"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="47">
+        <v>3762.5</v>
+      </c>
+      <c r="F73" s="47"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="B74" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" s="48">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="44"/>
+      <c r="E74" s="49">
+        <v>188.13</v>
+      </c>
+      <c r="F74" s="49"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="B75" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" s="51">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="44"/>
+      <c r="E75" s="52">
+        <v>375.31</v>
+      </c>
+      <c r="F75" s="49"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="5"/>
+      <c r="B77" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77" s="41"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="55">
+        <v>4325.9400000000005</v>
+      </c>
+      <c r="F77" s="56"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="B78" s="50"/>
+      <c r="C78" s="50"/>
+      <c r="D78" s="50"/>
+      <c r="E78" s="57"/>
+      <c r="F78" s="50"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="5"/>
+      <c r="B79" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79" s="50"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="8">
+        <v>0</v>
+      </c>
+      <c r="F79" s="8"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="50"/>
+      <c r="D80" s="50"/>
+      <c r="E80" s="57"/>
+      <c r="F80" s="50"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="5"/>
+      <c r="B81" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81" s="71"/>
+      <c r="D81" s="58"/>
+      <c r="E81" s="59">
+        <v>4325.9400000000005</v>
+      </c>
+      <c r="F81" s="8"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="60"/>
+      <c r="B83" s="72"/>
+      <c r="C83" s="73"/>
+      <c r="D83" s="73"/>
+      <c r="E83" s="73"/>
+      <c r="F83" s="61"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84" s="74"/>
+      <c r="C84" s="74"/>
+      <c r="D84" s="74"/>
+      <c r="E84" s="74"/>
+      <c r="F84" s="20"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" s="75"/>
+      <c r="C85" s="75"/>
+      <c r="D85" s="75"/>
+      <c r="E85" s="75"/>
+      <c r="F85" s="63"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="62"/>
+      <c r="B86" s="62"/>
+      <c r="C86" s="62"/>
+      <c r="D86" s="62"/>
+      <c r="E86" s="62"/>
+      <c r="F86" s="63"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="62"/>
+      <c r="B87" s="62"/>
+      <c r="C87" s="62"/>
+      <c r="D87" s="62"/>
+      <c r="E87" s="62"/>
+      <c r="F87" s="63"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="B88" s="68"/>
+      <c r="C88" s="68"/>
+      <c r="D88" s="68"/>
+      <c r="E88" s="68"/>
+      <c r="F88" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="119" scale="60" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F5A513-2D1F-4AE5-BE09-58385A46D8A1}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:F88"/>
     </sheetView>
@@ -1119,7 +2974,7 @@
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
@@ -1136,7 +2991,7 @@
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="6"/>
@@ -1146,7 +3001,7 @@
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="64" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="5"/>
@@ -1166,7 +3021,7 @@
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="5"/>
@@ -1190,7 +3045,7 @@
         <v>5</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="F28" s="13"/>
     </row>
@@ -1203,440 +3058,434 @@
       <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="18"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="17"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="21" t="s">
+      <c r="A32" s="19"/>
+      <c r="B32" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
-      <c r="B34" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="25" t="s">
+      <c r="A35" s="19"/>
+      <c r="B35" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="B36" s="25" t="s">
+      <c r="A36" s="19"/>
+      <c r="B36" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="19"/>
+      <c r="B37" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="25"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="25"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="19"/>
+      <c r="B39" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="25"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="19"/>
+      <c r="B40" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-    </row>
-    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-      <c r="B37" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-    </row>
-    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-      <c r="B38" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-    </row>
-    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
-      <c r="B39" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-    </row>
-    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
-      <c r="B40" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-      <c r="B41" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="26"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
-      <c r="B43" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="26"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="20"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="20"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="20"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="20"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="20"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="20"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="20"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="20"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="20"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="20"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
+      <c r="A60" s="19"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="20"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
+      <c r="A61" s="19"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="20"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
+      <c r="A62" s="19"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="20"/>
-      <c r="B63" s="30"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="20"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="65"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="20"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="35" t="s">
+      <c r="A65" s="19"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D65" s="36" t="s">
+      <c r="D65" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
     </row>
     <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="20"/>
-      <c r="B66" s="37"/>
-      <c r="C66" s="33">
-        <v>13.5</v>
-      </c>
-      <c r="D66" s="34">
-        <v>350</v>
-      </c>
-      <c r="E66" s="38"/>
-      <c r="F66" s="38"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="32">
+        <v>6.25</v>
+      </c>
+      <c r="D66" s="33">
+        <v>400</v>
+      </c>
+      <c r="E66" s="66"/>
+      <c r="F66" s="66"/>
     </row>
     <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="20"/>
-      <c r="B67" s="39"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
+      <c r="A67" s="19"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="20"/>
-      <c r="B68" s="40"/>
-      <c r="C68" s="41"/>
-      <c r="D68" s="41"/>
-      <c r="E68" s="41"/>
-      <c r="F68" s="20"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="19"/>
     </row>
     <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
-      <c r="B69" s="42" t="s">
+      <c r="B69" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="42"/>
+      <c r="C69" s="41"/>
       <c r="D69" s="7"/>
-      <c r="E69" s="43">
-        <v>4725</v>
-      </c>
-      <c r="F69" s="43"/>
+      <c r="E69" s="42">
+        <v>2500</v>
+      </c>
+      <c r="F69" s="42"/>
     </row>
     <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
-      <c r="B70" s="44" t="s">
+      <c r="B70" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C70" s="45"/>
+      <c r="C70" s="44"/>
       <c r="D70" s="7"/>
-      <c r="E70" s="46">
+      <c r="E70" s="45">
         <v>0</v>
       </c>
-      <c r="F70" s="46"/>
+      <c r="F70" s="45"/>
     </row>
     <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
-      <c r="B71" s="47" t="s">
+      <c r="B71" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C71" s="45"/>
+      <c r="C71" s="44"/>
       <c r="D71" s="7"/>
-      <c r="E71" s="46">
+      <c r="E71" s="45">
         <v>0</v>
       </c>
-      <c r="F71" s="46"/>
+      <c r="F71" s="45"/>
     </row>
     <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
-      <c r="B72" s="47" t="s">
+      <c r="B72" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="C72" s="45"/>
+      <c r="C72" s="44"/>
       <c r="D72" s="7"/>
-      <c r="E72" s="46">
+      <c r="E72" s="45">
         <v>0</v>
       </c>
-      <c r="F72" s="46"/>
+      <c r="F72" s="45"/>
     </row>
     <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C73" s="42"/>
+      <c r="C73" s="41"/>
       <c r="D73" s="7"/>
-      <c r="E73" s="48">
-        <v>4725</v>
-      </c>
-      <c r="F73" s="48"/>
+      <c r="E73" s="47">
+        <v>2500</v>
+      </c>
+      <c r="F73" s="47"/>
     </row>
     <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
-      <c r="B74" s="45" t="s">
+      <c r="B74" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="49">
+      <c r="C74" s="48">
         <v>0.05</v>
       </c>
-      <c r="D74" s="45"/>
-      <c r="E74" s="50">
-        <v>236.25</v>
-      </c>
-      <c r="F74" s="50"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="49">
+        <v>125</v>
+      </c>
+      <c r="F74" s="49"/>
     </row>
     <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
-      <c r="B75" s="51" t="s">
+      <c r="B75" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C75" s="52">
+      <c r="C75" s="51">
         <v>9.9750000000000005E-2</v>
       </c>
-      <c r="D75" s="45"/>
-      <c r="E75" s="53">
-        <v>471.32</v>
-      </c>
-      <c r="F75" s="50"/>
+      <c r="D75" s="44"/>
+      <c r="E75" s="52">
+        <v>249.38</v>
+      </c>
+      <c r="F75" s="49"/>
     </row>
     <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
-      <c r="B76" s="21"/>
+      <c r="B76" s="20"/>
       <c r="C76" s="5"/>
       <c r="D76" s="7"/>
       <c r="E76" s="8"/>
@@ -1644,30 +3493,30 @@
     </row>
     <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5"/>
-      <c r="B77" s="54" t="s">
+      <c r="B77" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C77" s="42"/>
-      <c r="D77" s="55"/>
-      <c r="E77" s="56">
-        <v>5432.57</v>
-      </c>
-      <c r="F77" s="57"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="55">
+        <v>2874.38</v>
+      </c>
+      <c r="F77" s="56"/>
     </row>
     <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
-      <c r="B78" s="51"/>
-      <c r="C78" s="51"/>
-      <c r="D78" s="51"/>
-      <c r="E78" s="58"/>
-      <c r="F78" s="51"/>
+      <c r="B78" s="50"/>
+      <c r="C78" s="50"/>
+      <c r="D78" s="50"/>
+      <c r="E78" s="57"/>
+      <c r="F78" s="50"/>
     </row>
     <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
-      <c r="B79" s="21" t="s">
+      <c r="B79" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C79" s="51"/>
+      <c r="C79" s="50"/>
       <c r="D79" s="7"/>
       <c r="E79" s="8">
         <v>0</v>
@@ -1676,21 +3525,21 @@
     </row>
     <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
-      <c r="B80" s="42"/>
-      <c r="C80" s="51"/>
-      <c r="D80" s="51"/>
-      <c r="E80" s="58"/>
-      <c r="F80" s="51"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="50"/>
+      <c r="D80" s="50"/>
+      <c r="E80" s="57"/>
+      <c r="F80" s="50"/>
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
-      <c r="B81" s="59" t="s">
+      <c r="B81" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="C81" s="60"/>
-      <c r="D81" s="61"/>
-      <c r="E81" s="62">
-        <v>5432.57</v>
+      <c r="C81" s="71"/>
+      <c r="D81" s="58"/>
+      <c r="E81" s="59">
+        <v>2874.38</v>
       </c>
       <c r="F81" s="8"/>
     </row>
@@ -1703,58 +3552,58 @@
       <c r="F82" s="8"/>
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="63"/>
-      <c r="B83" s="64"/>
-      <c r="C83" s="65"/>
-      <c r="D83" s="65"/>
-      <c r="E83" s="65"/>
-      <c r="F83" s="66"/>
+      <c r="A83" s="60"/>
+      <c r="B83" s="72"/>
+      <c r="C83" s="73"/>
+      <c r="D83" s="73"/>
+      <c r="E83" s="73"/>
+      <c r="F83" s="61"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="67" t="s">
+      <c r="A84" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="B84" s="67"/>
-      <c r="C84" s="67"/>
-      <c r="D84" s="67"/>
-      <c r="E84" s="67"/>
-      <c r="F84" s="21"/>
+      <c r="B84" s="74"/>
+      <c r="C84" s="74"/>
+      <c r="D84" s="74"/>
+      <c r="E84" s="74"/>
+      <c r="F84" s="20"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="68" t="s">
+      <c r="A85" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="68"/>
-      <c r="C85" s="68"/>
-      <c r="D85" s="68"/>
-      <c r="E85" s="68"/>
-      <c r="F85" s="69"/>
+      <c r="B85" s="75"/>
+      <c r="C85" s="75"/>
+      <c r="D85" s="75"/>
+      <c r="E85" s="75"/>
+      <c r="F85" s="63"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="70"/>
-      <c r="B86" s="70"/>
-      <c r="C86" s="70"/>
-      <c r="D86" s="70"/>
-      <c r="E86" s="70"/>
-      <c r="F86" s="69"/>
+      <c r="A86" s="62"/>
+      <c r="B86" s="62"/>
+      <c r="C86" s="62"/>
+      <c r="D86" s="62"/>
+      <c r="E86" s="62"/>
+      <c r="F86" s="63"/>
     </row>
     <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="70"/>
-      <c r="B87" s="70"/>
-      <c r="C87" s="70"/>
-      <c r="D87" s="70"/>
-      <c r="E87" s="70"/>
-      <c r="F87" s="69"/>
+      <c r="A87" s="62"/>
+      <c r="B87" s="62"/>
+      <c r="C87" s="62"/>
+      <c r="D87" s="62"/>
+      <c r="E87" s="62"/>
+      <c r="F87" s="63"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="71" t="s">
+      <c r="A88" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="B88" s="71"/>
-      <c r="C88" s="71"/>
-      <c r="D88" s="71"/>
-      <c r="E88" s="71"/>
-      <c r="F88" s="71"/>
+      <c r="B88" s="68"/>
+      <c r="C88" s="68"/>
+      <c r="D88" s="68"/>
+      <c r="E88" s="68"/>
+      <c r="F88" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1767,7 +3616,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="119" scale="61" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>